--- a/testNadz/1.Mobile_Android/NegativeScenario/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
+++ b/testNadz/1.Mobile_Android/NegativeScenario/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
@@ -424,22 +424,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Delete_User</v>
+        <v>Delete_User_Gmail</v>
       </c>
       <c r="B2" t="str">
         <v>TC003</v>
       </c>
       <c r="C2" t="str">
-        <v>Mobile_Delete_User_NegativeScenario</v>
+        <v>Mobile_Delete_User_Gmail_NegativeScenario</v>
       </c>
       <c r="D2" t="str">
-        <v>7/14/2025, 1:03:32 PM</v>
+        <v>7/17/2025, 12:40:24 PM</v>
       </c>
       <c r="E2" t="str">
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile_Android/NegativeScenario/screenshots/Mobile_Android_DeleteUser_Gmail/step4_error.png</v>
       </c>
     </row>
   </sheetData>

--- a/testNadz/1.Mobile_Android/NegativeScenario/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
+++ b/testNadz/1.Mobile_Android/NegativeScenario/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
@@ -433,13 +433,13 @@
         <v>Mobile_Delete_User_Gmail_NegativeScenario</v>
       </c>
       <c r="D2" t="str">
-        <v>7/17/2025, 12:40:24 PM</v>
+        <v>7/17/2025, 3:55:41 PM</v>
       </c>
       <c r="E2" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile_Android/NegativeScenario/screenshots/Mobile_Android_DeleteUser_Gmail/step4_error.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile_Android/NegativeScenario/screenshots/Mobile_Android_DeleteUser_Gmail/step10_gmail_account_selected.png</v>
       </c>
     </row>
   </sheetData>
